--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1701623.080666939</v>
+        <v>-1704240.917893567</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14944359.36198346</v>
+        <v>14944359.36198345</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.8500120862736</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>101.1268049488689</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>188.9831348340003</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,13 +826,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>43.05455521647431</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>102.8321754831106</v>
       </c>
       <c r="V4" t="n">
-        <v>50.9807481254292</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>298.8724794603411</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>142.5708055487652</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,10 +1054,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>13.33835225137439</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.4043435954559</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>284.4297735342305</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>73.87127112968082</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>184.238237950663</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>129.275471726286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>160.176346405345</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>118.8241514613401</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>183.6118834172033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>247.2924896597634</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766861</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>115.7063133373731</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>113.0992099793449</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652613</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065884</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>837.3843300102556</v>
+        <v>1152.080087958285</v>
       </c>
       <c r="C2" t="n">
-        <v>837.3843300102556</v>
+        <v>1152.080087958285</v>
       </c>
       <c r="D2" t="n">
-        <v>837.3843300102556</v>
+        <v>1152.080087958285</v>
       </c>
       <c r="E2" t="n">
-        <v>837.3843300102556</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2335.491833099485</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2081.910772363665</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>1750.847885020094</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>1398.07922974998</v>
+        <v>1915.685178195176</v>
       </c>
       <c r="X2" t="n">
-        <v>1398.07922974998</v>
+        <v>1542.219419934096</v>
       </c>
       <c r="Y2" t="n">
-        <v>1007.939897774168</v>
+        <v>1152.080087958285</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L3" t="n">
-        <v>845.9911918222185</v>
+        <v>909.2465818694942</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1590.995858314206</v>
+        <v>541.5048674128361</v>
       </c>
       <c r="C4" t="n">
-        <v>1422.059675386299</v>
+        <v>541.5048674128361</v>
       </c>
       <c r="D4" t="n">
-        <v>1271.943035973964</v>
+        <v>391.3882280005004</v>
       </c>
       <c r="E4" t="n">
-        <v>1124.029942391571</v>
+        <v>243.4751344181073</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936603</v>
+        <v>243.4751344181073</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936603</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878779</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.98193257148</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324692</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>1233.363081423567</v>
       </c>
       <c r="V4" t="n">
-        <v>2510.843623222954</v>
+        <v>1233.363081423567</v>
       </c>
       <c r="W4" t="n">
-        <v>2221.426453185993</v>
+        <v>943.945911386606</v>
       </c>
       <c r="X4" t="n">
-        <v>1993.436902287976</v>
+        <v>943.945911386606</v>
       </c>
       <c r="Y4" t="n">
-        <v>1772.644323144446</v>
+        <v>723.1533322430759</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1207.174565974851</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>821.3863133766063</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>410.4004085869987</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>3181.594906913448</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2828.826251643334</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2455.360493382254</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y5" t="n">
-        <v>2065.221161406442</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4641,7 +4641,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>675.2351809199101</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>675.2351809199101</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
         <v>675.2351809199101</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.464090846021</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1582.779602640134</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.362432603173</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1065.372881705156</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>856.8836457501499</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>2175.400891308158</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1448.172675760996</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1062.384423162752</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>651.398518373144</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3250.988376023635</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3045.010628407857</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3045.010628407857</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2713.947741064286</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2361.179085794172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X8" t="n">
-        <v>1987.713327533092</v>
+        <v>2952.140063348092</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>2562.00073137228</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.1078027362229</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="C10" t="n">
-        <v>460.171619808316</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1741.195317835298</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1741.195317835298</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1452.092450960941</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1452.092450960941</v>
       </c>
       <c r="W10" t="n">
-        <v>1169.327103036486</v>
+        <v>1162.675280923981</v>
       </c>
       <c r="X10" t="n">
-        <v>941.3375521384687</v>
+        <v>934.6857300259632</v>
       </c>
       <c r="Y10" t="n">
-        <v>810.7562675664626</v>
+        <v>713.893150882433</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5030,34 +5030,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,16 +5288,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5525,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>991.7436897307826</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>822.8075068028758</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>672.69086739054</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>524.7777738081469</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>377.8878263102365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>210.6917270251164</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>1394.184733704552</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y25" t="n">
-        <v>1173.392154561022</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="26">
@@ -6218,37 +6218,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,19 +6473,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6640,31 +6640,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,13 +6774,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6835,34 +6835,34 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,13 +7011,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,13 +7248,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,28 +7330,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878345</v>
       </c>
       <c r="L3" t="n">
-        <v>255.524048747157</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,19 +22553,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>105.5313800313649</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>160.2578338834128</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>123.2520448283299</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>57.22910392194325</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>48.42266963728773</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.97276993489149</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>38.89198472948075</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194177</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>24.58839950885074</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>112.6104454096922</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26332,16 +26332,16 @@
         <v>121071.9899535009</v>
       </c>
       <c r="I2" t="n">
-        <v>121071.9899535009</v>
+        <v>121071.989953501</v>
       </c>
       <c r="J2" t="n">
         <v>121071.9899535009</v>
       </c>
       <c r="K2" t="n">
+        <v>123156.2654796425</v>
+      </c>
+      <c r="L2" t="n">
         <v>123156.2654796424</v>
-      </c>
-      <c r="L2" t="n">
-        <v>123156.2654796423</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>68537.81069968623</v>
+        <v>68537.8106996862</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
     </row>
     <row r="4">
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47790.09282518986</v>
+        <v>47790.09282518984</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312014</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768938</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768923</v>
+        <v>9947.144321768916</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768883</v>
+        <v>9947.144321768908</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768914</v>
       </c>
       <c r="K4" t="n">
-        <v>17938.00358486232</v>
+        <v>17938.00358486238</v>
       </c>
       <c r="L4" t="n">
         <v>17938.00358486236</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486238</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="N4" t="n">
         <v>17938.00358486237</v>
@@ -26457,7 +26457,7 @@
         <v>17938.00358486236</v>
       </c>
       <c r="P4" t="n">
-        <v>17938.00358486236</v>
+        <v>17938.00358486237</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1156012.639830503</v>
+        <v>-1156407.460771656</v>
       </c>
       <c r="C6" t="n">
-        <v>-277350.5957869768</v>
+        <v>-277350.5957869767</v>
       </c>
       <c r="D6" t="n">
-        <v>-73911.85417487101</v>
+        <v>-73911.85417487094</v>
       </c>
       <c r="E6" t="n">
-        <v>-315410.1459995304</v>
+        <v>-315444.8839249659</v>
       </c>
       <c r="F6" t="n">
-        <v>10002.31580782487</v>
+        <v>9967.577882389203</v>
       </c>
       <c r="G6" t="n">
-        <v>10002.31580782485</v>
+        <v>9967.57788238916</v>
       </c>
       <c r="H6" t="n">
-        <v>10002.3158078249</v>
+        <v>9967.577882389189</v>
       </c>
       <c r="I6" t="n">
-        <v>10002.31580782488</v>
+        <v>9967.577882389262</v>
       </c>
       <c r="J6" t="n">
-        <v>-157602.8620021577</v>
+        <v>-157637.5999275934</v>
       </c>
       <c r="K6" t="n">
-        <v>-66483.66465882155</v>
+        <v>-66483.66465882149</v>
       </c>
       <c r="L6" t="n">
-        <v>2054.14604086458</v>
+        <v>2054.146040864682</v>
       </c>
       <c r="M6" t="n">
-        <v>-83000.88189464707</v>
+        <v>-83000.88189464704</v>
       </c>
       <c r="N6" t="n">
-        <v>2054.146040864725</v>
+        <v>2054.146040864754</v>
       </c>
       <c r="O6" t="n">
-        <v>2054.146040864798</v>
+        <v>2054.146040864754</v>
       </c>
       <c r="P6" t="n">
-        <v>-17373.57195276706</v>
+        <v>-17373.57195276704</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203969</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>213.883829577207</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>183.39497863809</v>
       </c>
       <c r="V4" t="n">
-        <v>201.1568951983988</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>112.0492461931123</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>185.1814529213697</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,19 +27828,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>238.7992910724536</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.18030975663893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>126.4919521192229</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>35.31649065849501</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>5.530787380778918</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>89.30918162580875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-1.94019576702396e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732306</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>726.7533607666135</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>163.1438255932938</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236497</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L3" t="n">
-        <v>553.2044093850072</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34796,10 +34796,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287862</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060442</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>584.6193268445951</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
